--- a/.titles/event_titles.xlsx
+++ b/.titles/event_titles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\q_reports\.titles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C538A6B-DBD2-4F01-AE06-101C20497E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0792BAC4-7FD5-4C75-A472-2B37A5036E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6492" yWindow="2226" windowWidth="13032" windowHeight="10134" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7314" yWindow="1968" windowWidth="13032" windowHeight="10134" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="census" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="339">
   <si>
     <t>original</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>YTD Average</t>
-  </si>
-  <si>
-    <t>X2</t>
   </si>
   <si>
     <t>jan</t>
@@ -1014,29 +1011,6 @@
     <t>At the Time of the Fall was the Person Enrolled in OT/PT?</t>
   </si>
   <si>
-    <t>First BPPV Screening Question: _x000D_
-Can this person answer complex medical questions independently?(If no, skip first 5 questions)</t>
-  </si>
-  <si>
-    <t>Affirmative BPPV Questions</t>
-  </si>
-  <si>
-    <t>Who is Responding to BPPV Questions?</t>
-  </si>
-  <si>
-    <t>Date BPPV _x000D_
-Referrals Made</t>
-  </si>
-  <si>
-    <t>BPPV Follow-up Results</t>
-  </si>
-  <si>
-    <t>Sought Medical F/U for Dizziness</t>
-  </si>
-  <si>
-    <t>Resulting Dizziness Diagnoses</t>
-  </si>
-  <si>
     <t>week_day</t>
   </si>
   <si>
@@ -1110,27 +1084,6 @@
   </si>
   <si>
     <t>ot_pt</t>
-  </si>
-  <si>
-    <t>bppv_indp</t>
-  </si>
-  <si>
-    <t>bppv_affirm</t>
-  </si>
-  <si>
-    <t>bppv_who</t>
-  </si>
-  <si>
-    <t>bppv_referral</t>
-  </si>
-  <si>
-    <t>bppv_fu_result</t>
-  </si>
-  <si>
-    <t>bppv_sought_fu</t>
-  </si>
-  <si>
-    <t>diagnosis_result</t>
   </si>
   <si>
     <t>abrev</t>
@@ -1507,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1535,10 +1488,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1549,10 +1502,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1563,10 +1516,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1577,10 +1530,10 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1591,10 +1544,10 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1605,10 +1558,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1619,10 +1572,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1633,10 +1586,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1647,10 +1600,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1661,10 +1614,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1675,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1689,10 +1642,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1703,10 +1656,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1717,10 +1670,10 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1731,10 +1684,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1769,13 +1722,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1783,13 +1736,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1797,13 +1750,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1811,13 +1764,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1825,13 +1778,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1839,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1853,13 +1806,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1867,13 +1820,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1881,13 +1834,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1895,13 +1848,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1909,13 +1862,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1923,13 +1876,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1937,13 +1890,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1951,13 +1904,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1965,643 +1918,643 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2633,13 +2586,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2647,13 +2600,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2661,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2675,13 +2628,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2689,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2703,13 +2656,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2717,13 +2670,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2731,13 +2684,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2745,13 +2698,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2759,13 +2712,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2773,13 +2726,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2787,13 +2740,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2801,13 +2754,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2815,13 +2768,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2829,405 +2782,405 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3259,13 +3212,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3273,13 +3226,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3287,13 +3240,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3301,13 +3254,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3315,13 +3268,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3329,13 +3282,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3343,13 +3296,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3357,13 +3310,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3371,13 +3324,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3385,13 +3338,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3399,13 +3352,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3413,13 +3366,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3427,13 +3380,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3441,13 +3394,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3479,13 +3432,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3493,13 +3446,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3507,13 +3460,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3521,13 +3474,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3535,13 +3488,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3549,13 +3502,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3563,13 +3516,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3577,13 +3530,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3591,13 +3544,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3605,13 +3558,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3619,13 +3572,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3633,13 +3586,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3647,13 +3600,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3661,13 +3614,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3675,391 +3628,391 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4069,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4096,13 +4049,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4110,13 +4063,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4124,13 +4077,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4138,13 +4091,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4152,13 +4105,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4166,13 +4119,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4180,13 +4133,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4194,13 +4147,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4208,13 +4161,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4222,13 +4175,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4236,13 +4189,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4250,13 +4203,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4264,13 +4217,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4278,13 +4231,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4292,615 +4245,517 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C47" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C48" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C49" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C50" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C53" t="s">
-        <v>346</v>
-      </c>
-      <c r="D53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>315</v>
-      </c>
-      <c r="C54" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" t="s">
-        <v>316</v>
-      </c>
-      <c r="C55" t="s">
-        <v>348</v>
-      </c>
-      <c r="D55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" t="s">
-        <v>317</v>
-      </c>
-      <c r="C56" t="s">
-        <v>349</v>
-      </c>
-      <c r="D56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C57" t="s">
-        <v>350</v>
-      </c>
-      <c r="D57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" t="s">
-        <v>319</v>
-      </c>
-      <c r="C58" t="s">
-        <v>351</v>
-      </c>
-      <c r="D58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" t="s">
-        <v>320</v>
-      </c>
-      <c r="C59" t="s">
-        <v>352</v>
-      </c>
-      <c r="D59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/.titles/event_titles.xlsx
+++ b/.titles/event_titles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barne\code\state-tn\ReporTN_templates\.titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0792BAC4-7FD5-4C75-A472-2B37A5036E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6B70B7-8502-46F2-8946-D8DE15611FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7314" yWindow="1968" windowWidth="13032" windowHeight="10134" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7314" yWindow="1968" windowWidth="13032" windowHeight="10134" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="census" sheetId="1" r:id="rId1"/>
@@ -4025,7 +4025,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="A53" sqref="A53:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
